--- a/Assets/07Table/ActionGame.xlsx
+++ b/Assets/07Table/ActionGame.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -44,7 +44,7 @@
     <t>단검</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_equipment_sword</t>
+    <t>ItemIcon/Icon_Sword</t>
   </si>
   <si>
     <t>단검+2</t>
@@ -62,7 +62,7 @@
     <t>도끼</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_equipment_weapon_ax</t>
+    <t>ItemIcon/Icon_Shovel</t>
   </si>
   <si>
     <t>도끼+2</t>
@@ -80,13 +80,13 @@
     <t>나무활</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_equipment_weapon_bow</t>
+    <t>ItemIcon/Icon_Bomb_Bomb</t>
   </si>
   <si>
     <t>해머</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_equipment_weapon_hammer</t>
+    <t>ItemIcon/Icon_Hammer</t>
   </si>
   <si>
     <t>돌맹이</t>
@@ -98,52 +98,55 @@
     <t>잡]마법사모자</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_equipment_helmet_witch</t>
+    <t>ItemIcon/Icon_BoxingGloves</t>
   </si>
   <si>
     <t>잡]조던링</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_equipment_ring</t>
+    <t>ItemIcon/Icon_Boots</t>
   </si>
   <si>
     <t>잡]할배검</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_equipment_weapon_spear</t>
+    <t>ItemIcon/Icon_Clover</t>
   </si>
   <si>
     <t>잡]윈드포스</t>
   </si>
   <si>
+    <t>ItemIcon/Icon_Dog-Gum</t>
+  </si>
+  <si>
     <t>잡]풀플레이트아머</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_equipment_armor</t>
+    <t>ItemIcon/Icon_Crown</t>
   </si>
   <si>
     <t>빨간물약</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_flask_red</t>
+    <t>ItemIcon/Icon_Potion01_Red</t>
   </si>
   <si>
     <t>보라물약</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_flask_purple</t>
+    <t>ItemIcon/Icon_Potion01_Purple</t>
   </si>
   <si>
     <t>초록물약</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_flask_green</t>
+    <t>ItemIcon/Icon_Potion02_Green</t>
   </si>
   <si>
     <t>파랑물약</t>
   </si>
   <si>
-    <t>ItemIcon/itemicon_flask_blue</t>
+    <t>ItemIcon/Icon_Potion01_Blue</t>
   </si>
   <si>
     <t>sceneName</t>
@@ -976,7 +979,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>100.0</v>
@@ -999,10 +1002,10 @@
         <v>1001010.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1">
         <v>110.0</v>
@@ -1025,10 +1028,10 @@
         <v>2001001.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1">
         <v>100.0</v>
@@ -1051,10 +1054,10 @@
         <v>2001002.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1">
         <v>200.0</v>
@@ -1077,10 +1080,10 @@
         <v>2001003.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
         <v>300.0</v>
@@ -1103,10 +1106,10 @@
         <v>2001004.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1">
         <v>400.0</v>
@@ -1148,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1159,10 +1162,10 @@
         <v>10001.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1170,10 +1173,10 @@
         <v>10002.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1181,10 +1184,10 @@
         <v>20001.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1192,10 +1195,10 @@
         <v>20002.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1203,10 +1206,10 @@
         <v>30001.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1214,10 +1217,10 @@
         <v>30002.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1240,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -1251,10 +1254,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1292,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1307,19 +1310,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -1327,7 +1330,7 @@
         <v>101001.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -1362,7 +1365,7 @@
         <v>101002.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>2.0</v>
@@ -1397,7 +1400,7 @@
         <v>102001.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -1432,7 +1435,7 @@
         <v>102002.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
         <v>2.0</v>
@@ -1467,7 +1470,7 @@
         <v>501001.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1">
         <v>6.0</v>
@@ -1514,10 +1517,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
